--- a/MVFI/OK VINBLANC.xlsx
+++ b/MVFI/OK VINBLANC.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="315">
   <si>
     <t xml:space="preserve">Fruité </t>
   </si>
@@ -118,9 +118,6 @@
     <t>&lt;nav class="navbar navbar-expand-lg navbar-light bg-light"&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;a class="dropdown-item" href="list-</t>
-  </si>
-  <si>
     <t>&lt;ul class="nav-item dropdown"&gt; &lt;a  class="nav-link dropdown-toggle"  href="list-#Type"  id="navbarDropdown" role="button" data-toggle="dropdown" aria-haspopup="true" aria-expanded="false"&gt;</t>
   </si>
   <si>
@@ -1011,14 +1008,312 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;a class="dropdown-item"  data-toggle="tab"  role="tab" aria-selected="false" href="list-</t>
+    <t>&lt;a type="button" class="btn" data-toggle="modal" data-target="#region-France-</t>
+  </si>
+  <si>
+    <t>&lt;/a&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> aria-expanded</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"false"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> aria-controls</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>li</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"button"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"dropdown-item dropdown-toggle"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> data-toggle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"collapse"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> data-target</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>collapseRegions1</t>
+  </si>
+  <si>
+    <t>#collapseRegions1</t>
+  </si>
+  <si>
+    <t>#collapseRegions2</t>
+  </si>
+  <si>
+    <t>collapseRegions2</t>
+  </si>
+  <si>
+    <t>#collapseRegions3</t>
+  </si>
+  <si>
+    <t>collapseRegions3</t>
+  </si>
+  <si>
+    <t>#collapseRegions4</t>
+  </si>
+  <si>
+    <t>collapseRegions4</t>
+  </si>
+  <si>
+    <t>#collapseRegions5</t>
+  </si>
+  <si>
+    <t>collapseRegions5</t>
+  </si>
+  <si>
+    <t>#collapseRegions6</t>
+  </si>
+  <si>
+    <t>collapseRegions6</t>
+  </si>
+  <si>
+    <t>#collapseRegions7</t>
+  </si>
+  <si>
+    <t>collapseRegions7</t>
+  </si>
+  <si>
+    <t>#collapseRegions8</t>
+  </si>
+  <si>
+    <t>collapseRegions8</t>
+  </si>
+  <si>
+    <t>#collapseRegions9</t>
+  </si>
+  <si>
+    <t>collapseRegions9</t>
+  </si>
+  <si>
+    <t>#collapseRegions10</t>
+  </si>
+  <si>
+    <t>collapseRegions10</t>
+  </si>
+  <si>
+    <t>#collapseRegions11</t>
+  </si>
+  <si>
+    <t>collapseRegions11</t>
+  </si>
+  <si>
+    <t>#collapseRegions12</t>
+  </si>
+  <si>
+    <t>collapseRegions12</t>
+  </si>
+  <si>
+    <t>#collapseRegions13</t>
+  </si>
+  <si>
+    <t>collapseRegions13</t>
+  </si>
+  <si>
+    <t>#collapseRegions14</t>
+  </si>
+  <si>
+    <t>collapseRegions14</t>
+  </si>
+  <si>
+    <t>#collapseRegions15</t>
+  </si>
+  <si>
+    <t>collapseRegions15</t>
+  </si>
+  <si>
+    <t>#collapseRegions16</t>
+  </si>
+  <si>
+    <t>collapseRegions16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1068,6 +1363,24 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1089,7 +1402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
@@ -1098,6 +1411,12 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1380,17 +1699,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G286"/>
+  <dimension ref="A1:I286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="65.08984375" customWidth="1"/>
-    <col min="2" max="2" width="57.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" customWidth="1"/>
+    <col min="2" max="2" width="77.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -1400,10 +1720,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -1415,923 +1735,923 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>280</v>
+      <c r="B4" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>280</v>
+      <c r="B5" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
         <v>4</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
-        <v>280</v>
+      <c r="B6" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
-        <v>280</v>
+      <c r="B7" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
-        <v>280</v>
+      <c r="B8" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
         <v>4</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>280</v>
+      <c r="B9" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
         <v>4</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
-        <v>280</v>
+      <c r="B10" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s">
         <v>4</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
-        <v>280</v>
+      <c r="B11" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
         <v>4</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
-        <v>280</v>
+      <c r="B12" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
         <v>4</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
-        <v>280</v>
+      <c r="B13" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s">
         <v>4</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
-        <v>280</v>
+      <c r="B14" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F14" t="s">
         <v>4</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
-        <v>280</v>
+      <c r="B15" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F15" t="s">
         <v>4</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
-        <v>280</v>
+      <c r="B16" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" t="s">
         <v>4</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
-        <v>280</v>
+      <c r="B17" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>5</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F17" t="s">
         <v>4</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
-        <v>280</v>
+      <c r="B18" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F18" t="s">
         <v>4</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
-        <v>280</v>
+      <c r="B19" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F19" t="s">
         <v>4</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
-        <v>280</v>
+      <c r="B20" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>5</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F20" t="s">
         <v>4</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
-        <v>280</v>
+      <c r="B21" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
         <v>5</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F21" t="s">
         <v>4</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B22" t="s">
-        <v>280</v>
+      <c r="B22" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
         <v>5</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F22" t="s">
         <v>4</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B23" t="s">
-        <v>280</v>
+      <c r="B23" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
         <v>5</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F23" t="s">
         <v>4</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B24" t="s">
-        <v>280</v>
+      <c r="B24" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" t="s">
         <v>5</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F24" t="s">
         <v>4</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B25" t="s">
-        <v>280</v>
+      <c r="B25" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D25" t="s">
         <v>5</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F25" t="s">
         <v>4</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B26" t="s">
-        <v>280</v>
+      <c r="B26" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D26" t="s">
         <v>5</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F26" t="s">
         <v>4</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B27" t="s">
-        <v>280</v>
+      <c r="B27" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D27" t="s">
         <v>5</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F27" t="s">
         <v>4</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B28" t="s">
-        <v>280</v>
+      <c r="B28" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D28" t="s">
         <v>5</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F28" t="s">
         <v>4</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B29" t="s">
-        <v>280</v>
+      <c r="B29" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D29" t="s">
         <v>5</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F29" t="s">
         <v>4</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B30" t="s">
-        <v>280</v>
+      <c r="B30" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D30" t="s">
         <v>5</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F30" t="s">
         <v>4</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B31" t="s">
-        <v>280</v>
+      <c r="B31" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D31" t="s">
         <v>5</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F31" t="s">
         <v>4</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B32" t="s">
-        <v>280</v>
+      <c r="B32" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D32" t="s">
         <v>5</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F32" t="s">
         <v>4</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B33" t="s">
-        <v>280</v>
+      <c r="B33" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D33" t="s">
         <v>5</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F33" t="s">
         <v>4</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="34" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B34" t="s">
-        <v>280</v>
+      <c r="B34" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D34" t="s">
         <v>5</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F34" t="s">
         <v>4</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="35" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B35" t="s">
-        <v>280</v>
+      <c r="B35" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D35" t="s">
         <v>5</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F35" t="s">
         <v>4</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B36" t="s">
-        <v>280</v>
+      <c r="B36" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D36" t="s">
         <v>5</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
         <v>4</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="37" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B37" t="s">
-        <v>280</v>
+      <c r="B37" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D37" t="s">
         <v>5</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
         <v>4</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B38" t="s">
-        <v>280</v>
+      <c r="B38" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D38" t="s">
         <v>5</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
         <v>4</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B39" t="s">
-        <v>280</v>
+      <c r="B39" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D39" t="s">
         <v>5</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F39" t="s">
         <v>4</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="40" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B40" t="s">
-        <v>280</v>
+      <c r="B40" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D40" t="s">
         <v>5</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F40" t="s">
         <v>4</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="41" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B41" t="s">
-        <v>280</v>
+      <c r="B41" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D41" t="s">
         <v>5</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F41" t="s">
         <v>4</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="42" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B42" t="s">
-        <v>280</v>
+      <c r="B42" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D42" t="s">
         <v>5</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F42" t="s">
         <v>4</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="43" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B43" t="s">
-        <v>280</v>
+      <c r="B43" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D43" t="s">
         <v>5</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F43" t="s">
         <v>4</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="44" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B44" t="s">
-        <v>280</v>
+      <c r="B44" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D44" t="s">
         <v>5</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F44" t="s">
         <v>4</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="45" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B45" t="s">
-        <v>280</v>
+      <c r="B45" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D45" t="s">
         <v>5</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F45" t="s">
         <v>4</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="46" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B46" t="s">
-        <v>280</v>
+      <c r="B46" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D46" t="s">
         <v>5</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F46" t="s">
         <v>4</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="47" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B47" t="s">
-        <v>280</v>
+      <c r="B47" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D47" t="s">
         <v>5</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F47" t="s">
         <v>4</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="48" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B48" t="s">
-        <v>280</v>
+      <c r="B48" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D48" t="s">
         <v>5</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F48" t="s">
         <v>4</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B49" t="s">
-        <v>280</v>
+      <c r="B49" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D49" t="s">
         <v>5</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F49" t="s">
         <v>4</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -2344,138 +2664,138 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C52" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C53" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C54" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C55" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C56" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C57" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C58" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C59" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C60" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C61" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
@@ -2485,10 +2805,10 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D63" t="s">
         <v>4</v>
@@ -2499,324 +2819,420 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B65" t="s">
-        <v>9</v>
-      </c>
-      <c r="C65" s="2" t="s">
+    <row r="65" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B65" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C65" t="s">
+        <v>284</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="F65" t="s">
+        <v>5</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H65" t="s">
+        <v>280</v>
+      </c>
+      <c r="I65" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B66" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C66" t="s">
+        <v>285</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="F66" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D65" t="s">
-        <v>5</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F65" t="s">
-        <v>4</v>
-      </c>
-      <c r="G65" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B66" t="s">
-        <v>9</v>
-      </c>
-      <c r="C66" s="2" t="s">
+      <c r="H66" t="s">
+        <v>280</v>
+      </c>
+      <c r="I66" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="B67" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C67" t="s">
+        <v>287</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="F67" t="s">
+        <v>5</v>
+      </c>
+      <c r="G67" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D66" t="s">
-        <v>5</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F66" t="s">
-        <v>4</v>
-      </c>
-      <c r="G66" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" ht="31" x14ac:dyDescent="0.35">
-      <c r="B67" t="s">
-        <v>9</v>
-      </c>
-      <c r="C67" s="2" t="s">
+      <c r="H67" t="s">
+        <v>280</v>
+      </c>
+      <c r="I67" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B68" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C68" t="s">
+        <v>289</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="F68" t="s">
+        <v>5</v>
+      </c>
+      <c r="G68" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D67" t="s">
-        <v>5</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F67" t="s">
-        <v>4</v>
-      </c>
-      <c r="G67" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B68" t="s">
-        <v>9</v>
-      </c>
-      <c r="C68" s="2" t="s">
+      <c r="H68" t="s">
+        <v>280</v>
+      </c>
+      <c r="I68" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B69" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C69" t="s">
+        <v>291</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="F69" t="s">
+        <v>5</v>
+      </c>
+      <c r="G69" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D68" t="s">
-        <v>5</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F68" t="s">
-        <v>4</v>
-      </c>
-      <c r="G68" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B69" t="s">
-        <v>9</v>
-      </c>
-      <c r="C69" s="2" t="s">
+      <c r="H69" t="s">
+        <v>280</v>
+      </c>
+      <c r="I69" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B70" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C70" t="s">
+        <v>293</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F70" t="s">
+        <v>5</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D69" t="s">
-        <v>5</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F69" t="s">
-        <v>4</v>
-      </c>
-      <c r="G69" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B70" t="s">
-        <v>9</v>
-      </c>
-      <c r="C70" s="2" t="s">
+      <c r="H70" t="s">
+        <v>280</v>
+      </c>
+      <c r="I70" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B71" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C71" t="s">
+        <v>295</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="F71" t="s">
+        <v>5</v>
+      </c>
+      <c r="G71" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D70" t="s">
-        <v>5</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F70" t="s">
-        <v>4</v>
-      </c>
-      <c r="G70" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B71" t="s">
-        <v>9</v>
-      </c>
-      <c r="C71" s="2" t="s">
+      <c r="H71" t="s">
+        <v>280</v>
+      </c>
+      <c r="I71" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B72" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C72" t="s">
+        <v>297</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="F72" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D71" t="s">
-        <v>5</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F71" t="s">
-        <v>4</v>
-      </c>
-      <c r="G71" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="72" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B72" t="s">
-        <v>9</v>
-      </c>
-      <c r="C72" s="2" t="s">
+      <c r="H72" t="s">
+        <v>280</v>
+      </c>
+      <c r="I72" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="B73" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C73" t="s">
+        <v>299</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="F73" t="s">
+        <v>5</v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D72" t="s">
-        <v>5</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F72" t="s">
-        <v>4</v>
-      </c>
-      <c r="G72" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7" ht="31" x14ac:dyDescent="0.35">
-      <c r="B73" t="s">
-        <v>9</v>
-      </c>
-      <c r="C73" s="2" t="s">
+      <c r="H73" t="s">
+        <v>280</v>
+      </c>
+      <c r="I73" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B74" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C74" t="s">
+        <v>301</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="F74" t="s">
+        <v>5</v>
+      </c>
+      <c r="G74" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D73" t="s">
-        <v>5</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F73" t="s">
-        <v>4</v>
-      </c>
-      <c r="G73" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="74" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B74" t="s">
-        <v>9</v>
-      </c>
-      <c r="C74" s="2" t="s">
+      <c r="H74" t="s">
+        <v>280</v>
+      </c>
+      <c r="I74" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B75" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C75" t="s">
+        <v>303</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="F75" t="s">
+        <v>5</v>
+      </c>
+      <c r="G75" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D74" t="s">
-        <v>5</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F74" t="s">
-        <v>4</v>
-      </c>
-      <c r="G74" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="75" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B75" t="s">
-        <v>9</v>
-      </c>
-      <c r="C75" s="2" t="s">
+      <c r="H75" t="s">
+        <v>280</v>
+      </c>
+      <c r="I75" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B76" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C76" t="s">
+        <v>305</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="F76" t="s">
+        <v>5</v>
+      </c>
+      <c r="G76" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D75" t="s">
-        <v>5</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F75" t="s">
-        <v>4</v>
-      </c>
-      <c r="G75" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="76" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B76" t="s">
-        <v>9</v>
-      </c>
-      <c r="C76" s="2" t="s">
+      <c r="H76" t="s">
+        <v>280</v>
+      </c>
+      <c r="I76" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B77" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C77" t="s">
+        <v>307</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="F77" t="s">
+        <v>5</v>
+      </c>
+      <c r="G77" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D76" t="s">
-        <v>5</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F76" t="s">
-        <v>4</v>
-      </c>
-      <c r="G76" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="77" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B77" t="s">
-        <v>9</v>
-      </c>
-      <c r="C77" s="2" t="s">
+      <c r="H77" t="s">
+        <v>280</v>
+      </c>
+      <c r="I77" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B78" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C78" t="s">
+        <v>309</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="F78" t="s">
+        <v>5</v>
+      </c>
+      <c r="G78" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D77" t="s">
-        <v>5</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F77" t="s">
-        <v>4</v>
-      </c>
-      <c r="G77" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="78" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B78" t="s">
-        <v>9</v>
-      </c>
-      <c r="C78" s="2" t="s">
+      <c r="H78" t="s">
+        <v>280</v>
+      </c>
+      <c r="I78" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B79" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C79" t="s">
+        <v>311</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="F79" t="s">
+        <v>5</v>
+      </c>
+      <c r="G79" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D78" t="s">
-        <v>5</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F78" t="s">
-        <v>4</v>
-      </c>
-      <c r="G78" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="79" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B79" t="s">
-        <v>9</v>
-      </c>
-      <c r="C79" s="2" t="s">
+      <c r="H79" t="s">
+        <v>280</v>
+      </c>
+      <c r="I79" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B80" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C80" t="s">
+        <v>313</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="F80" t="s">
+        <v>5</v>
+      </c>
+      <c r="G80" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D79" t="s">
-        <v>5</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F79" t="s">
-        <v>4</v>
-      </c>
-      <c r="G79" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="80" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B80" t="s">
-        <v>9</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D80" t="s">
-        <v>5</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F80" t="s">
-        <v>4</v>
-      </c>
-      <c r="G80" t="s">
-        <v>277</v>
+      <c r="H80" t="s">
+        <v>280</v>
+      </c>
+      <c r="I80" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
@@ -2829,2812 +3245,2812 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E82" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C84" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F84" s="3" t="s">
         <v>277</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C85" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F85" s="3" t="s">
         <v>277</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C86" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F86" s="3" t="s">
         <v>277</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C87" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F87" s="3" t="s">
         <v>277</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C88" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F88" s="3" t="s">
         <v>277</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E90" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C92" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C93" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C94" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C95" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C96" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="97" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C97" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="98" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C98" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="99" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C99" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="100" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C100" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="101" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C101" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="102" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C102" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="103" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C103" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="104" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C104" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="105" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C105" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="106" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C106" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="107" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C107" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="108" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C108" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="109" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C109" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="110" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C110" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="111" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C111" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="112" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C112" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="113" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C113" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="114" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C114" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="115" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C115" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="116" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C116" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="117" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C117" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="118" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C118" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="119" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C119" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="120" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C120" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="121" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C121" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="122" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C122" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="123" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C123" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="124" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C124" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="125" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C125" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="126" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C126" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="127" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C127" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="128" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C128" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="129" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C129" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="130" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C130" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="131" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C131" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="132" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C132" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="133" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C133" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="134" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C134" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="135" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C135" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="136" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C136" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="137" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C137" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="138" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C138" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="139" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C139" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="140" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C140" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="141" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C141" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="142" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C142" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="143" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C143" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="144" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C144" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="145" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C145" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="146" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C146" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="147" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C147" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="148" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C148" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="149" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C149" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="150" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C150" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="151" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C151" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="152" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C152" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="153" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C153" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="154" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C154" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="155" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C155" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="156" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C156" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="157" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C157" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="158" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C158" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="159" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C159" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="160" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C160" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="161" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C161" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="162" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C162" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="163" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C163" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="164" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C164" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="165" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C165" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="166" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C166" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="167" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C167" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="168" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C168" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="169" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C169" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="170" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C170" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="171" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C171" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="172" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C172" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="173" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C173" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="174" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C174" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="175" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C175" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="176" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C176" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="177" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C177" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="178" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C178" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="179" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C179" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="180" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C180" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="181" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C181" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="182" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C182" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="183" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C183" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="184" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C184" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="185" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C185" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="186" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C186" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="187" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C187" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="188" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C188" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="189" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C189" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="190" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C190" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="191" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C191" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="192" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C192" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="193" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C193" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="194" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C194" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="195" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C195" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="196" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C196" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="197" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C197" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="198" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C198" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="199" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C199" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="200" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C200" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="201" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C201" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="202" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C202" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="203" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C203" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="204" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C204" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="205" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C205" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="206" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C206" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="207" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C207" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="208" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C208" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="209" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C209" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="210" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C210" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="211" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C211" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="212" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C212" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="213" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C213" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="214" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C214" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="215" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C215" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="216" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C216" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="217" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C217" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="218" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C218" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="219" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C219" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="220" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C220" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="221" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C221" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="222" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C222" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="223" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C223" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="224" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C224" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="225" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C225" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="226" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C226" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="227" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C227" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="228" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C228" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="229" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C229" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="230" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C230" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="231" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C231" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F231" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="232" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C232" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="233" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C233" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="234" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C234" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="235" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C235" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="236" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C236" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="237" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C237" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="238" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C238" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="239" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C239" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="240" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C240" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="241" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C241" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="242" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C242" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F242" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="243" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C243" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F243" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="244" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C244" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F244" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="245" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C245" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F245" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="246" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C246" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F246" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="247" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C247" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F247" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="248" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C248" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F248" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="249" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C249" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F249" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="250" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C250" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F250" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="251" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C251" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F251" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="252" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C252" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F252" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="253" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C253" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F253" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="254" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C254" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F254" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="255" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C255" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F255" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="256" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C256" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F256" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="257" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C257" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F257" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="258" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C258" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F258" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="259" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C259" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F259" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="260" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C260" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F260" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="261" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C261" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F261" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="262" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C262" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F262" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="263" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C263" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F263" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="264" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C264" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F264" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="265" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C265" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F265" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="266" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C266" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F266" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="267" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C267" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F267" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="268" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C268" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F268" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="269" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C269" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F269" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="270" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C270" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F270" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="271" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C271" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F271" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="272" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C272" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F272" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="273" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C273" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F273" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="274" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C274" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F274" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="275" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C275" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F275" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="276" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C276" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F276" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="277" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C277" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F277" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="278" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C278" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D278" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F278" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="279" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C279" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F279" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="280" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C280" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F280" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="281" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C281" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F281" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="282" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C282" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F282" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="283" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C283" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D283" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F283" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="284" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C284" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F284" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="285" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C285" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F285" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="286" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C286" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F286" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
